--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+  <si>
+    <t>questions</t>
+  </si>
   <si>
     <t>Si on devait retenir une chose de vous ?</t>
   </si>
@@ -109,9 +112,6 @@
     <t>Que vous apportent vos loisirs ?</t>
   </si>
   <si>
-    <t>LE SPORT</t>
-  </si>
-  <si>
     <t>C'est important le sport ? Ca prend combien d'heures par semaine ?
 Pourquoi le sport ? Qu'est-ce que cela m'apporte ?</t>
   </si>
@@ -119,9 +119,6 @@
     <t xml:space="preserve">Pourquoi la musique ? Qu'est ce que cela m'apporte ? </t>
   </si>
   <si>
-    <t>MON PARCOURS (cf question CV) voir onglet 3. à caser</t>
-  </si>
-  <si>
     <t>Quel est mon parcours professionnel ?</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Let's do the rest of this interview in English</t>
   </si>
   <si>
-    <t>VALEURS</t>
-  </si>
-  <si>
     <t>C'est important les personnes avec qui vous travaillez ? Qu'est-ce que ça vous apporte ?</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
   </si>
   <si>
     <t>Qu'est ce que c'est qu'être une femme ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEC &amp; la majeure entrepreneurs </t>
   </si>
   <si>
     <t xml:space="preserve">Pourquoi la majeure entrepreneurs ? </t>
@@ -276,9 +267,6 @@
 - Si vous n'avez pas Entrepreneurs vous faites quoi? </t>
   </si>
   <si>
-    <t>L'entrepreneuriat</t>
-  </si>
-  <si>
     <t>Définition entrepreneur</t>
   </si>
   <si>
@@ -367,9 +355,6 @@
   </si>
   <si>
     <t>Pourquoi HEC ?</t>
-  </si>
-  <si>
-    <t>Questions pour déstabiliser</t>
   </si>
   <si>
     <t xml:space="preserve">Vous nous manquez de respect, vous ne portez pas de cravate ! </t>
@@ -423,6 +408,9 @@
     <t xml:space="preserve">Quelle est-votre face cachée ? </t>
   </si>
   <si>
+    <t>Racontez une blague, faîtes nous rire!</t>
+  </si>
+  <si>
     <t>Vous n'êtes pas très marrant !</t>
   </si>
   <si>
@@ -494,17 +482,11 @@
     <t>Vous utilisez souvent "camarade", vous êtes communiste ?</t>
   </si>
   <si>
-    <t>CONCLUSION</t>
-  </si>
-  <si>
     <t>Si on devait retenir une chose de vous ?
 Il vous reste 1mn, pourquoi on vous prend vous ?</t>
   </si>
   <si>
     <t>Avez-vous des questions ?</t>
-  </si>
-  <si>
-    <t>AUTRES</t>
   </si>
   <si>
     <t>C'est quoi le rapport entre les chevaux et l'entrepreneuriat ?</t>
@@ -742,7 +724,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -750,24 +732,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -778,7 +748,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,113 +757,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBE5F1"/>
-        <bgColor rgb="FFDBE5F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1116,1354 +1009,1137 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="79.0"/>
+    <col customWidth="1" min="1" max="1" width="79.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="5" t="s">
-        <v>31</v>
+      <c r="A33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="4" t="s">
-        <v>32</v>
+      <c r="A34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
+      <c r="A35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="5" t="s">
-        <v>34</v>
+      <c r="A38" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="4" t="s">
-        <v>35</v>
+      <c r="A39" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
+      <c r="A40" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="2" t="s">
-        <v>37</v>
+      <c r="A41" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
+      <c r="A43" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="2" t="s">
-        <v>39</v>
+      <c r="A44" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="2" t="s">
-        <v>40</v>
+      <c r="A45" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
+      <c r="A46" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="2" t="s">
-        <v>42</v>
+      <c r="A47" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
-        <v>43</v>
+      <c r="A48" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
-        <v>44</v>
+      <c r="A49" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
-        <v>45</v>
+      <c r="A50" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>46</v>
+      <c r="A51" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
-        <v>47</v>
+      <c r="A52" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2" t="s">
-        <v>48</v>
+      <c r="A53" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2" t="s">
-        <v>49</v>
+      <c r="A54" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2" t="s">
-        <v>50</v>
+      <c r="A55" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2" t="s">
-        <v>51</v>
+      <c r="A56" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="5" t="s">
-        <v>52</v>
+      <c r="A58" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
-        <v>53</v>
+      <c r="A59" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="8" t="s">
-        <v>54</v>
+      <c r="A60" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8" t="s">
-        <v>55</v>
+      <c r="A61" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="8" t="s">
-        <v>56</v>
+      <c r="A62" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="8" t="s">
-        <v>57</v>
+      <c r="A63" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="8" t="s">
-        <v>58</v>
+      <c r="A64" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="8" t="s">
-        <v>59</v>
+      <c r="A65" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="B70" s="5" t="s">
-        <v>60</v>
+      <c r="A70" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="7" t="s">
-        <v>61</v>
+      <c r="A71" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="8" t="s">
-        <v>62</v>
+      <c r="A72" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="8" t="s">
-        <v>63</v>
+      <c r="A73" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="8" t="s">
-        <v>64</v>
+      <c r="A74" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="8" t="s">
-        <v>65</v>
+      <c r="A75" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="8" t="s">
-        <v>66</v>
+      <c r="A76" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="8" t="s">
-        <v>67</v>
+      <c r="A77" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="8" t="s">
-        <v>68</v>
+      <c r="A78" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="8" t="s">
-        <v>69</v>
+      <c r="A79" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="8" t="s">
-        <v>70</v>
+      <c r="A80" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="8" t="s">
-        <v>71</v>
+      <c r="A81" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="8" t="s">
-        <v>72</v>
+      <c r="A82" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="8" t="s">
-        <v>73</v>
+      <c r="A83" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="8" t="s">
-        <v>74</v>
+      <c r="A84" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="8" t="s">
-        <v>75</v>
+      <c r="A85" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="8" t="s">
-        <v>76</v>
+      <c r="A86" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="8" t="s">
-        <v>77</v>
+      <c r="A87" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="8" t="s">
-        <v>78</v>
+      <c r="A88" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="8" t="s">
-        <v>79</v>
+      <c r="A89" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="8" t="s">
-        <v>80</v>
+      <c r="A90" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="8" t="s">
-        <v>81</v>
+      <c r="A91" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="8" t="s">
-        <v>82</v>
+      <c r="A92" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="8" t="s">
-        <v>83</v>
+      <c r="A93" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="A94" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="B95" s="9" t="s">
-        <v>84</v>
+      <c r="A95" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="7" t="s">
-        <v>85</v>
+      <c r="A96" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="8" t="s">
-        <v>86</v>
+      <c r="A97" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="8" t="s">
-        <v>87</v>
+      <c r="A98" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="1"/>
-      <c r="B99" s="8" t="s">
-        <v>88</v>
+      <c r="A99" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="8" t="s">
-        <v>89</v>
+      <c r="A100" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="1"/>
-      <c r="B101" s="8" t="s">
-        <v>90</v>
+      <c r="A101" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="8" t="s">
-        <v>91</v>
+      <c r="A102" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="8" t="s">
-        <v>92</v>
+      <c r="A103" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="8" t="s">
-        <v>93</v>
+      <c r="A104" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="1"/>
-      <c r="B105" s="8" t="s">
-        <v>94</v>
+      <c r="A105" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="1"/>
-      <c r="B106" s="8" t="s">
-        <v>95</v>
+      <c r="A106" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="1"/>
-      <c r="B107" s="8" t="s">
-        <v>96</v>
+      <c r="A107" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="1"/>
-      <c r="B108" s="8" t="s">
-        <v>97</v>
+      <c r="A108" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="1"/>
-      <c r="B109" s="8" t="s">
-        <v>98</v>
+      <c r="A109" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="1"/>
-      <c r="B110" s="10" t="s">
-        <v>99</v>
+      <c r="A110" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="1"/>
-      <c r="B111" s="8" t="s">
-        <v>100</v>
+      <c r="A111" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="1"/>
-      <c r="B112" s="8" t="s">
-        <v>101</v>
+      <c r="A112" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="1"/>
-      <c r="B113" s="8" t="s">
-        <v>102</v>
+      <c r="A113" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="1"/>
-      <c r="B114" s="8" t="s">
-        <v>103</v>
+      <c r="A114" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="1"/>
-      <c r="B115" s="8" t="s">
-        <v>104</v>
+      <c r="A115" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="1"/>
-      <c r="B116" s="8" t="s">
-        <v>105</v>
+      <c r="A116" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="1"/>
-      <c r="B117" s="8" t="s">
-        <v>106</v>
+      <c r="A117" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="1"/>
-      <c r="B118" s="8" t="s">
-        <v>107</v>
+      <c r="A118" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" s="8" t="s">
-        <v>108</v>
+      <c r="A119" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="1"/>
-      <c r="B120" s="8" t="s">
-        <v>109</v>
+      <c r="A120" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="1"/>
-      <c r="B121" s="8" t="s">
-        <v>110</v>
+      <c r="A121" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="1"/>
-      <c r="B122" s="8" t="s">
-        <v>111</v>
+      <c r="A122" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="1"/>
-      <c r="B123" s="8" t="s">
-        <v>112</v>
+      <c r="A123" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="1"/>
-      <c r="B124" s="8" t="s">
-        <v>113</v>
+      <c r="A124" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="A125" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="A126" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="A127" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="B128" s="5" t="s">
-        <v>114</v>
+      <c r="A128" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="1"/>
-      <c r="B129" s="4" t="s">
-        <v>115</v>
+      <c r="A129" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2" t="s">
-        <v>116</v>
+      <c r="A130" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2" t="s">
-        <v>117</v>
+      <c r="A131" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2" t="s">
-        <v>118</v>
+      <c r="A132" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="1"/>
-      <c r="B133" s="2" t="s">
-        <v>119</v>
+      <c r="A133" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="1"/>
-      <c r="B134" s="4" t="s">
-        <v>120</v>
+      <c r="A134" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2" t="s">
-        <v>121</v>
+      <c r="A135" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2" t="s">
-        <v>122</v>
+      <c r="A136" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="1"/>
-      <c r="B137" s="12" t="str">
-        <f>HYPERLINK("http://www.uneblague.com/-Consultant-.html","Racontez une blague, faîtes nous rire!")</f>
-        <v>Racontez une blague, faîtes nous rire!</v>
+      <c r="A137" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2" t="s">
-        <v>123</v>
+      <c r="A138" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2" t="s">
-        <v>124</v>
+      <c r="A139" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2" t="s">
-        <v>125</v>
+      <c r="A140" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2" t="s">
-        <v>126</v>
+      <c r="A141" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2" t="s">
-        <v>127</v>
+      <c r="A142" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2" t="s">
-        <v>128</v>
+      <c r="A143" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2" t="s">
-        <v>129</v>
+      <c r="A144" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2" t="s">
-        <v>130</v>
+      <c r="A145" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="1"/>
-      <c r="B146" s="4" t="s">
-        <v>131</v>
+      <c r="A146" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="1"/>
-      <c r="B147" s="4" t="s">
-        <v>132</v>
+      <c r="A147" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="1"/>
-      <c r="B148" s="4" t="s">
-        <v>133</v>
+      <c r="A148" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="1"/>
-      <c r="B149" s="2" t="s">
-        <v>134</v>
+      <c r="A149" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="1"/>
-      <c r="B150" s="4" t="s">
-        <v>135</v>
+      <c r="A150" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="1"/>
-      <c r="B151" s="4" t="s">
-        <v>136</v>
+      <c r="A151" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="1"/>
-      <c r="B152" s="4" t="s">
-        <v>137</v>
+      <c r="A152" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="1"/>
-      <c r="B153" s="4" t="s">
-        <v>138</v>
+      <c r="A153" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="1"/>
-      <c r="B154" s="4" t="s">
-        <v>139</v>
+      <c r="A154" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="1"/>
-      <c r="B155" s="4" t="s">
-        <v>140</v>
+      <c r="A155" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2" t="s">
-        <v>141</v>
+      <c r="A156" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2" t="s">
-        <v>142</v>
+      <c r="A157" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2" t="s">
-        <v>143</v>
+      <c r="A158" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="1"/>
-      <c r="B159" s="4" t="s">
-        <v>144</v>
+      <c r="A159" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="1"/>
-      <c r="B160" s="2" t="s">
-        <v>145</v>
+      <c r="A160" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="A161" s="7" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="A162" s="7" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="B163" s="13" t="s">
-        <v>146</v>
+      <c r="A163" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="1"/>
-      <c r="B164" s="4" t="s">
-        <v>147</v>
+      <c r="A164" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="1"/>
-      <c r="B165" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="166" ht="14.25" customHeight="1"/>
+      <c r="A165" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="B167" s="14" t="s">
-        <v>149</v>
+      <c r="A167" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="B168" s="15" t="s">
-        <v>150</v>
+      <c r="A168" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="B169" s="15" t="s">
-        <v>151</v>
+      <c r="A169" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="B170" s="15" t="s">
-        <v>152</v>
+      <c r="A170" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="B171" s="15" t="s">
-        <v>153</v>
+      <c r="A171" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="B172" s="15" t="s">
-        <v>154</v>
+      <c r="A172" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="B173" s="15" t="s">
-        <v>155</v>
+      <c r="A173" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="B174" s="15" t="s">
-        <v>156</v>
+      <c r="A174" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="B175" s="15" t="s">
-        <v>157</v>
+      <c r="A175" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="B176" s="15" t="s">
-        <v>158</v>
+      <c r="A176" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="B177" s="15" t="s">
-        <v>159</v>
+      <c r="A177" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="B178" s="15" t="s">
-        <v>160</v>
+      <c r="A178" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="B179" s="15" t="s">
-        <v>161</v>
+      <c r="A179" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="B180" s="15" t="s">
-        <v>162</v>
+      <c r="A180" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="B181" s="15" t="s">
-        <v>163</v>
+      <c r="A181" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="B182" s="15" t="s">
-        <v>164</v>
+      <c r="A182" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="B183" s="15" t="s">
-        <v>165</v>
+      <c r="A183" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="B184" s="15" t="s">
-        <v>166</v>
+      <c r="A184" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="B185" s="15" t="s">
-        <v>167</v>
+      <c r="A185" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="B186" s="15" t="s">
-        <v>168</v>
+      <c r="A186" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="B187" s="15" t="s">
-        <v>169</v>
+      <c r="A187" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="B188" s="15" t="s">
-        <v>170</v>
+      <c r="A188" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="B189" s="15" t="s">
-        <v>171</v>
+      <c r="A189" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="B190" s="15" t="s">
-        <v>172</v>
+      <c r="A190" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="B191" s="15" t="s">
-        <v>173</v>
+      <c r="A191" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="B192" s="15" t="s">
-        <v>174</v>
+      <c r="A192" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="B193" s="15" t="s">
-        <v>175</v>
+      <c r="A193" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="B194" s="15" t="s">
-        <v>176</v>
+      <c r="A194" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="B195" s="15" t="s">
-        <v>177</v>
+      <c r="A195" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="B196" s="15" t="s">
-        <v>178</v>
+      <c r="A196" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="B197" s="15" t="s">
-        <v>179</v>
+      <c r="A197" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="B198" s="15" t="s">
-        <v>180</v>
+      <c r="A198" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="B199" s="15" t="s">
-        <v>181</v>
+      <c r="A199" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="B200" s="15" t="s">
-        <v>182</v>
+      <c r="A200" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="B201" s="15" t="s">
-        <v>183</v>
+      <c r="A201" s="7" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="B202" s="15" t="s">
-        <v>184</v>
+      <c r="A202" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="B203" s="15" t="s">
-        <v>185</v>
+      <c r="A203" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="B204" s="15" t="s">
-        <v>186</v>
+      <c r="A204" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="B205" s="15" t="s">
-        <v>187</v>
+      <c r="A205" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="B206" s="15" t="s">
-        <v>188</v>
+      <c r="A206" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="B207" s="15" t="s">
-        <v>189</v>
+      <c r="A207" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="B208" s="15" t="s">
-        <v>190</v>
+      <c r="A208" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="B209" s="15" t="s">
-        <v>191</v>
+      <c r="A209" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="B210" s="15" t="s">
-        <v>192</v>
+      <c r="A210" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="B211" s="15" t="s">
-        <v>193</v>
+      <c r="A211" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="B212" s="15" t="s">
-        <v>194</v>
+      <c r="A212" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="B213" s="15" t="s">
-        <v>195</v>
+      <c r="A213" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="B214" s="15" t="s">
-        <v>196</v>
+      <c r="A214" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="B215" s="15" t="s">
-        <v>197</v>
+      <c r="A215" s="7" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="B216" s="15" t="s">
-        <v>198</v>
+      <c r="A216" s="7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="B217" s="15" t="s">
-        <v>199</v>
+      <c r="A217" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="B218" s="15" t="s">
-        <v>200</v>
+      <c r="A218" s="7" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="B219" s="15" t="s">
-        <v>201</v>
+      <c r="A219" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="B220" s="15" t="s">
-        <v>202</v>
+      <c r="A220" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="B221" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="222" ht="14.25" customHeight="1">
-      <c r="B222" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="223" ht="14.25" customHeight="1">
-      <c r="B223" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="224" ht="14.25" customHeight="1">
-      <c r="B224" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="225" ht="14.25" customHeight="1">
-      <c r="B225" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="226" ht="14.25" customHeight="1">
-      <c r="B226" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="227" ht="14.25" customHeight="1">
-      <c r="B227" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="228" ht="14.25" customHeight="1">
-      <c r="B228" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="229" ht="14.25" customHeight="1">
-      <c r="B229" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="230" ht="14.25" customHeight="1">
-      <c r="B230" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="231" ht="14.25" customHeight="1">
-      <c r="B231" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="232" ht="14.25" customHeight="1">
-      <c r="B232" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="233" ht="14.25" customHeight="1">
-      <c r="B233" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="234" ht="14.25" customHeight="1">
-      <c r="B234" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="235" ht="14.25" customHeight="1">
-      <c r="B235" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="236" ht="14.25" customHeight="1">
-      <c r="B236" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="237" ht="14.25" customHeight="1">
-      <c r="B237" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="238" ht="14.25" customHeight="1">
-      <c r="B238" s="15" t="s">
+      <c r="A221" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
-      <c r="B239" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="240" ht="14.25" customHeight="1">
-      <c r="B240" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="241" ht="14.25" customHeight="1">
-      <c r="B241" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="242" ht="14.25" customHeight="1">
-      <c r="B242" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="243" ht="14.25" customHeight="1">
-      <c r="B243" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="244" ht="14.25" customHeight="1">
-      <c r="B244" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
     <row r="245" ht="14.25" customHeight="1"/>
     <row r="246" ht="14.25" customHeight="1"/>
     <row r="247" ht="14.25" customHeight="1"/>
@@ -3185,29 +2861,6 @@
     <row r="963" ht="14.25" customHeight="1"/>
     <row r="964" ht="14.25" customHeight="1"/>
     <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
